--- a/excel/12_13_portfolio_optimization.xlsx
+++ b/excel/12_13_portfolio_optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\busi448\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{255A3914-6122-49CA-B10B-CE7B35688683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DA4EF7-0175-4A7D-BE43-F457E50EFD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -936,6 +936,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5676,7 +5677,7 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.15430055364876635</c:v>
+                  <c:v>0.15658899473806112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5688,7 +5689,7 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.6306263503140589E-2</c:v>
+                  <c:v>6.7178216427688481E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6832,7 +6833,7 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.15430055364876635</c:v>
+                  <c:v>0.15658899473806112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6844,7 +6845,7 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.6306263503140589E-2</c:v>
+                  <c:v>6.7178216427688481E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6905,16 +6906,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0919182704092888E-2</c:v>
+                  <c:v>5.1674368263560165E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10338137094467345</c:v>
+                  <c:v>0.10491462647450094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15430055364876635</c:v>
+                  <c:v>0.15658899473806112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20521973635285926</c:v>
+                  <c:v>0.20826336300162129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6926,19 +6927,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.7999999999999996E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.509706695603639E-2</c:v>
+                  <c:v>2.8868811421137196E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6009196547104191E-2</c:v>
+                  <c:v>4.8309405006551273E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6306263503140589E-2</c:v>
+                  <c:v>6.7178216427688481E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.660333045917698E-2</c:v>
+                  <c:v>8.6047027848825688E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19107,7 +19108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19239,9 +19242,8 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="65">
-        <f>0.0012*4</f>
-        <v>4.7999999999999996E-3</v>
+      <c r="C12" s="82">
+        <v>0.01</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -19322,7 +19324,7 @@
       </c>
       <c r="J17" s="2">
         <f>(G17-$C$12)/I17</f>
-        <v>0.3610243679356942</v>
+        <v>0.33605991692754117</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -19413,7 +19415,7 @@
       </c>
       <c r="J22" s="35">
         <f>(G22-$C$12)/I22</f>
-        <v>0.18406377116479256</v>
+        <v>0.15687253224272094</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -19447,7 +19449,7 @@
       </c>
       <c r="J23" s="36">
         <f>(G23-$C$12)/I23</f>
-        <v>0.29229000525189208</v>
+        <v>0.25866372148655897</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -19481,7 +19483,7 @@
       </c>
       <c r="J24" s="36">
         <f t="shared" ref="J24:J26" si="3">(G24-$C$12)/I24</f>
-        <v>0.38246483904053158</v>
+        <v>0.34643557513349216</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -19515,7 +19517,7 @@
       </c>
       <c r="J25" s="36">
         <f t="shared" si="3"/>
-        <v>0.39445314877383464</v>
+        <v>0.36299372268689184</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19549,7 +19551,7 @@
       </c>
       <c r="J26" s="37">
         <f t="shared" si="3"/>
-        <v>0.3610243679356942</v>
+        <v>0.33605991692754117</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -20511,7 +20513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20643,9 +20647,8 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="65">
-        <f>0.0012*4</f>
-        <v>4.7999999999999996E-3</v>
+      <c r="C12" s="82">
+        <v>0.01</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -20726,7 +20729,7 @@
       </c>
       <c r="J17" s="2">
         <f>(G17-$C$12)/I17</f>
-        <v>0.37148910211798924</v>
+        <v>0.33532800382830913</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -20817,7 +20820,7 @@
       </c>
       <c r="J22" s="35">
         <f>(G22-$C$12)/I22</f>
-        <v>0.18406377116479256</v>
+        <v>0.15687253224272094</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -20851,7 +20854,7 @@
       </c>
       <c r="J23" s="36">
         <f>(G23-$C$12)/I23</f>
-        <v>0.29229000525189208</v>
+        <v>0.25866372148655897</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -20885,7 +20888,7 @@
       </c>
       <c r="J24" s="36">
         <f t="shared" ref="J24:J26" si="3">(G24-$C$12)/I24</f>
-        <v>0.38246483904053158</v>
+        <v>0.34643557513349216</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -20919,7 +20922,7 @@
       </c>
       <c r="J25" s="36">
         <f t="shared" si="3"/>
-        <v>0.39445314877383464</v>
+        <v>0.36299372268689184</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20953,7 +20956,7 @@
       </c>
       <c r="J26" s="37">
         <f t="shared" si="3"/>
-        <v>0.3610243679356942</v>
+        <v>0.33605991692754117</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -21022,7 +21025,7 @@
       </c>
       <c r="J29" s="3">
         <f>(G29-$C$12)/I29</f>
-        <v>0.37148910211798924</v>
+        <v>0.33532800382830913</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -22089,9 +22092,8 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="65">
-        <f>0.0012*4</f>
-        <v>4.7999999999999996E-3</v>
+      <c r="C12" s="82">
+        <v>0.01</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -22146,33 +22148,33 @@
         <v>15</v>
       </c>
       <c r="C17" s="12">
-        <v>0.42029936294000741</v>
+        <v>0.3811881886197771</v>
       </c>
       <c r="D17" s="12">
-        <v>0.35251661587061794</v>
+        <v>0.34653464139493578</v>
       </c>
       <c r="E17" s="12">
-        <v>0.22718402118937467</v>
+        <v>0.27227716774788796</v>
       </c>
       <c r="F17" s="10">
         <f>SUM(C17:E17)</f>
-        <v>1</v>
+        <v>0.99999999776260085</v>
       </c>
       <c r="G17" s="10">
         <f>SUMPRODUCT(C17:E17,$C$4:$E$4)</f>
-        <v>6.6306263503140589E-2</v>
+        <v>6.7178216427688481E-2</v>
       </c>
       <c r="H17" s="3">
         <f t="array" ref="H17">MMULT(C17:E17,MMULT($C$8:$E$10,TRANSPOSE(C17:E17)))</f>
-        <v>2.3808660856315826E-2</v>
+        <v>2.452011327307653E-2</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" ref="I17" si="0">SQRT(H17)</f>
-        <v>0.15430055364876635</v>
+        <v>0.15658899473806112</v>
       </c>
       <c r="J17" s="2">
         <f>(G17-$C$12)/I17</f>
-        <v>0.3986133688356493</v>
+        <v>0.36514837152722662</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -22263,7 +22265,7 @@
       </c>
       <c r="J22" s="35">
         <f>(G22-$C$12)/I22</f>
-        <v>0.18406377116479256</v>
+        <v>0.15687253224272094</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -22297,7 +22299,7 @@
       </c>
       <c r="J23" s="36">
         <f>(G23-$C$12)/I23</f>
-        <v>0.29229000525189208</v>
+        <v>0.25866372148655897</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -22331,7 +22333,7 @@
       </c>
       <c r="J24" s="36">
         <f t="shared" ref="J24:J26" si="3">(G24-$C$12)/I24</f>
-        <v>0.38246483904053158</v>
+        <v>0.34643557513349216</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -22365,7 +22367,7 @@
       </c>
       <c r="J25" s="36">
         <f t="shared" si="3"/>
-        <v>0.39445314877383464</v>
+        <v>0.36299372268689184</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22399,7 +22401,7 @@
       </c>
       <c r="J26" s="37">
         <f t="shared" si="3"/>
-        <v>0.3610243679356942</v>
+        <v>0.33605991692754117</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -22441,34 +22443,34 @@
       <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="10">
-        <v>0.42029936294000741</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0.35251661587061794</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0.22718402118937467</v>
+      <c r="C29" s="12">
+        <v>0.3811881886197771</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.34653464139493578</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.27227716774788796</v>
       </c>
       <c r="F29" s="10">
         <f>SUM(C29:E29)</f>
-        <v>1</v>
+        <v>0.99999999776260085</v>
       </c>
       <c r="G29" s="3">
         <f>SUMPRODUCT(C29:E29,$C$4:$E$4)</f>
-        <v>6.6306263503140589E-2</v>
+        <v>6.7178216427688481E-2</v>
       </c>
       <c r="H29" s="10">
         <f t="array" ref="H29">MMULT(C29:E29,MMULT($C$8:$E$10,TRANSPOSE(C29:E29)))</f>
-        <v>2.3808660856315826E-2</v>
+        <v>2.452011327307653E-2</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29" si="4">SQRT(H29)</f>
-        <v>0.15430055364876635</v>
+        <v>0.15658899473806112</v>
       </c>
       <c r="J29" s="3">
         <f>(G29-$C$12)/I29</f>
-        <v>0.3986133688356493</v>
+        <v>0.36514837152722662</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -23617,9 +23619,8 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="65">
-        <f>0.0012*4</f>
-        <v>4.7999999999999996E-3</v>
+      <c r="C12" s="82">
+        <v>0.01</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -23674,33 +23675,33 @@
         <v>15</v>
       </c>
       <c r="C17" s="12">
-        <v>0.42029936294000741</v>
+        <v>0.3811881886197771</v>
       </c>
       <c r="D17" s="12">
-        <v>0.35251661587061794</v>
+        <v>0.34653464139493578</v>
       </c>
       <c r="E17" s="12">
-        <v>0.22718402118937467</v>
+        <v>0.27227716774788796</v>
       </c>
       <c r="F17" s="10">
         <f>SUM(C17:E17)</f>
-        <v>1</v>
+        <v>0.99999999776260085</v>
       </c>
       <c r="G17" s="10">
         <f>SUMPRODUCT(C17:E17,$C$4:$E$4)</f>
-        <v>6.6306263503140589E-2</v>
+        <v>6.7178216427688481E-2</v>
       </c>
       <c r="H17" s="3">
         <f t="array" ref="H17">MMULT(C17:E17,MMULT($C$8:$E$10,TRANSPOSE(C17:E17)))</f>
-        <v>2.3808660856315826E-2</v>
+        <v>2.452011327307653E-2</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" ref="I17" si="0">SQRT(H17)</f>
-        <v>0.15430055364876635</v>
+        <v>0.15658899473806112</v>
       </c>
       <c r="J17" s="2">
         <f>(G17-$C$12)/I17</f>
-        <v>0.3986133688356493</v>
+        <v>0.36514837152722662</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -23791,7 +23792,7 @@
       </c>
       <c r="J22" s="35">
         <f>(G22-$C$12)/I22</f>
-        <v>0.18406377116479256</v>
+        <v>0.15687253224272094</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -23825,7 +23826,7 @@
       </c>
       <c r="J23" s="36">
         <f>(G23-$C$12)/I23</f>
-        <v>0.29229000525189208</v>
+        <v>0.25866372148655897</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -23859,7 +23860,7 @@
       </c>
       <c r="J24" s="36">
         <f t="shared" ref="J24:J26" si="3">(G24-$C$12)/I24</f>
-        <v>0.38246483904053158</v>
+        <v>0.34643557513349216</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -23893,7 +23894,7 @@
       </c>
       <c r="J25" s="36">
         <f t="shared" si="3"/>
-        <v>0.39445314877383464</v>
+        <v>0.36299372268689184</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23927,7 +23928,7 @@
       </c>
       <c r="J26" s="37">
         <f t="shared" si="3"/>
-        <v>0.3610243679356942</v>
+        <v>0.33605991692754117</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -23969,34 +23970,34 @@
       <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="10">
-        <v>0.42029936294000741</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0.35251661587061794</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0.22718402118937467</v>
+      <c r="C29" s="12">
+        <v>0.3811881886197771</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.34653464139493578</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.27227716774788796</v>
       </c>
       <c r="F29" s="10">
         <f>SUM(C29:E29)</f>
-        <v>1</v>
+        <v>0.99999999776260085</v>
       </c>
       <c r="G29" s="3">
         <f>SUMPRODUCT(C29:E29,$C$4:$E$4)</f>
-        <v>6.6306263503140589E-2</v>
+        <v>6.7178216427688481E-2</v>
       </c>
       <c r="H29" s="10">
         <f t="array" ref="H29">MMULT(C29:E29,MMULT($C$8:$E$10,TRANSPOSE(C29:E29)))</f>
-        <v>2.3808660856315826E-2</v>
+        <v>2.452011327307653E-2</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29" si="4">SQRT(H29)</f>
-        <v>0.15430055364876635</v>
+        <v>0.15658899473806112</v>
       </c>
       <c r="J29" s="3">
         <f>(G29-$C$12)/I29</f>
-        <v>0.3986133688356493</v>
+        <v>0.36514837152722662</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24038,7 +24039,7 @@
       </c>
       <c r="E32" s="10">
         <f>C32*$C$12+D32*$G$29</f>
-        <v>4.7999999999999996E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F32" s="10">
         <f>D32*$I$29</f>
@@ -24062,15 +24063,15 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" ref="E33:E36" si="6">C33*$C$12+D33*$G$29</f>
-        <v>2.509706695603639E-2</v>
+        <v>2.8868811421137196E-2</v>
       </c>
       <c r="F33" s="10">
         <f t="shared" ref="F33:F36" si="7">D33*$I$29</f>
-        <v>5.0919182704092888E-2</v>
+        <v>5.1674368263560165E-2</v>
       </c>
       <c r="G33" s="20">
         <f t="shared" ref="G33:G36" si="8">(E33-$C$12)/F33</f>
-        <v>0.3986133688356493</v>
+        <v>0.36514837152722657</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="10"/>
@@ -24086,15 +24087,15 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" si="6"/>
-        <v>4.6009196547104191E-2</v>
+        <v>4.8309405006551273E-2</v>
       </c>
       <c r="F34" s="10">
         <f t="shared" si="7"/>
-        <v>0.10338137094467345</v>
+        <v>0.10491462647450094</v>
       </c>
       <c r="G34" s="20">
         <f t="shared" si="8"/>
-        <v>0.39861336883564924</v>
+        <v>0.36514837152722662</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="10"/>
@@ -24110,15 +24111,15 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" si="6"/>
-        <v>6.6306263503140589E-2</v>
+        <v>6.7178216427688481E-2</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="7"/>
-        <v>0.15430055364876635</v>
+        <v>0.15658899473806112</v>
       </c>
       <c r="G35" s="20">
         <f t="shared" si="8"/>
-        <v>0.3986133688356493</v>
+        <v>0.36514837152722662</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="10"/>
@@ -24134,15 +24135,15 @@
       </c>
       <c r="E36" s="22">
         <f t="shared" si="6"/>
-        <v>8.660333045917698E-2</v>
+        <v>8.6047027848825688E-2</v>
       </c>
       <c r="F36" s="22">
         <f t="shared" si="7"/>
-        <v>0.20521973635285926</v>
+        <v>0.20826336300162129</v>
       </c>
       <c r="G36" s="24">
         <f t="shared" si="8"/>
-        <v>0.39861336883564924</v>
+        <v>0.36514837152722673</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="10"/>
@@ -25014,6 +25015,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9413D8A9D81BC42B89A34BEF682B128" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab363915c6d326592960e88f0835cc53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e8c3f7f-26d7-4998-b53e-8e33be4b4482" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3d6420889d6b91b98cdde0947df98d3" ns3:_="">
     <xsd:import namespace="6e8c3f7f-26d7-4998-b53e-8e33be4b4482"/>
@@ -25157,22 +25173,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD52EFE6-C7E7-4C20-ABC7-AE0E288DAF70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6e8c3f7f-26d7-4998-b53e-8e33be4b4482"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8D4423-9C8D-450A-B48D-33C3A2D924B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292CF6E3-D4AE-42FA-8457-058329CBA5DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25188,28 +25213,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8D4423-9C8D-450A-B48D-33C3A2D924B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD52EFE6-C7E7-4C20-ABC7-AE0E288DAF70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6e8c3f7f-26d7-4998-b53e-8e33be4b4482"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>